--- a/replication/results/figureA2_bac_test_primary.xlsx
+++ b/replication/results/figureA2_bac_test_primary.xlsx
@@ -34,55 +34,55 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(1.23)</t>
+    <t>(1.17)</t>
   </si>
   <si>
     <t>(0.85)</t>
   </si>
   <si>
-    <t>(1.13)</t>
-  </si>
-  <si>
-    <t>(0.74)</t>
-  </si>
-  <si>
-    <t>(1.29)</t>
-  </si>
-  <si>
-    <t>(0.8)</t>
+    <t>(0.97)</t>
+  </si>
+  <si>
+    <t>(0.64)</t>
+  </si>
+  <si>
+    <t>(1.16)</t>
+  </si>
+  <si>
+    <t>(0.7)</t>
+  </si>
+  <si>
+    <t>(1.1)</t>
+  </si>
+  <si>
+    <t>(0.88)</t>
+  </si>
+  <si>
+    <t>(0.79)</t>
+  </si>
+  <si>
+    <t>(1.25)</t>
+  </si>
+  <si>
+    <t>(0.6)</t>
   </si>
   <si>
     <t>(1.02)</t>
   </si>
   <si>
-    <t>(1.07)</t>
-  </si>
-  <si>
-    <t>(0.84)</t>
-  </si>
-  <si>
-    <t>(1.36)</t>
-  </si>
-  <si>
-    <t>(0.79)</t>
-  </si>
-  <si>
-    <t>(1.05)</t>
-  </si>
-  <si>
-    <t>(0.77)</t>
-  </si>
-  <si>
-    <t>(1.56)</t>
-  </si>
-  <si>
-    <t>(1.16)</t>
-  </si>
-  <si>
-    <t>(2.68)</t>
-  </si>
-  <si>
-    <t>(2.08)</t>
+    <t>(0.71)</t>
+  </si>
+  <si>
+    <t>(1.44)</t>
+  </si>
+  <si>
+    <t>(1.19)</t>
+  </si>
+  <si>
+    <t>(2.94)</t>
+  </si>
+  <si>
+    <t>(2.05)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
